--- a/Dataset/Kaggle/results/ml2/no_best.xlsx
+++ b/Dataset/Kaggle/results/ml2/no_best.xlsx
@@ -497,7 +497,7 @@
         <v>5.305957406282569</v>
       </c>
       <c r="G2" t="n">
-        <v>2.311227143010795</v>
+        <v>2.311025133262927</v>
       </c>
       <c r="H2" t="n">
         <v>0.9174138219388109</v>
